--- a/biology/Médecine/Habenula/Habenula.xlsx
+++ b/biology/Médecine/Habenula/Habenula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habenula appartient à l'épithalamus, situé en arrière et au-dessus du mésencéphale, et se compose de chaque côté de deux noyaux médian et latéral. Ces deux noyaux sont localisés au sein du triangle habénulaire, limité en dedans par le pédoncule antérieur (également appelé "habenula") de l'épiphyse,  en dehors par le pédoncule latéral et en haut par le pulvinar (noyau postérieur du thalamus).
 Le noyau médian reçoit ses principales afférences du septum par la strie médullaire, et se projette sur le noyau interpédonculaire.
@@ -515,7 +527,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Article Habenula sur Scholarpedia, par Okihide Hikosaka, du laboratoire de recherches sensorimotrices du NIH,  Bethesda.
  Portail des neurosciences   Portail de la médecine                    </t>
